--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938CCAF-892D-F24D-9939-A072C03A6CDA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FBBFC-37D9-6741-9E62-181412959688}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25860" windowHeight="11120" activeTab="2" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId3"/>
     <sheet name="intensidad" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">Conteo </t>
   </si>
@@ -131,13 +132,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,8 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4530,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC97A6DA-62ED-9145-A887-23E5222790CF}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A8" zoomScale="109" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4542,7 +4558,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4553,7 +4569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>500</v>
       </c>
@@ -4564,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>500</v>
       </c>
@@ -4575,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>500</v>
       </c>
@@ -4585,8 +4601,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>500</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>500</v>
       </c>
@@ -4596,8 +4621,18 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1">
+        <v>510</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500</v>
       </c>
@@ -4607,8 +4642,18 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+      <c r="H6" s="1">
+        <v>520</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.3333330000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -4618,8 +4663,18 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="1">
+        <v>530</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10.222222</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>500</v>
       </c>
@@ -4629,8 +4684,18 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="1">
+        <v>540</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>500</v>
       </c>
@@ -4640,8 +4705,18 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="1">
+        <v>550</v>
+      </c>
+      <c r="I9" s="1">
+        <v>94.307692000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.230769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>500</v>
       </c>
@@ -4651,8 +4726,18 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <v>560</v>
+      </c>
+      <c r="I10" s="1">
+        <v>203.454545</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.36363600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>510</v>
       </c>
@@ -4662,8 +4747,18 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <v>570</v>
+      </c>
+      <c r="I11" s="1">
+        <v>367.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>510</v>
       </c>
@@ -4673,8 +4768,18 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <v>580</v>
+      </c>
+      <c r="I12" s="1">
+        <v>684.3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>510</v>
       </c>
@@ -4684,8 +4789,18 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <v>590</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1600</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>510</v>
       </c>
@@ -4695,8 +4810,18 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="1">
+        <v>600</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2167.8000000000002</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>510</v>
       </c>
@@ -4707,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>510</v>
       </c>
@@ -5754,6 +5879,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5761,8 +5887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682B2EF-EAEB-41C5-9B46-EE1E6D2FCDB9}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6203,4 +6329,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FBBFC-37D9-6741-9E62-181412959688}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49245AF3-8002-0C41-A34E-08AC64C2EED4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4548,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC97A6DA-62ED-9145-A887-23E5222790CF}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="109" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4601,15 +4601,9 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>500</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.44444400000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -4622,15 +4616,9 @@
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="1">
-        <v>510</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.55555600000000005</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -4643,15 +4631,9 @@
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="1">
-        <v>520</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.3333330000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4664,15 +4646,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="1">
-        <v>530</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10.222222</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4685,15 +4661,9 @@
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="1">
-        <v>540</v>
-      </c>
-      <c r="I8" s="1">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4706,15 +4676,9 @@
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="1">
-        <v>550</v>
-      </c>
-      <c r="I9" s="1">
-        <v>94.307692000000003</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.230769</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4727,15 +4691,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="1">
-        <v>560</v>
-      </c>
-      <c r="I10" s="1">
-        <v>203.454545</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.36363600000000001</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -4748,15 +4706,9 @@
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="1">
-        <v>570</v>
-      </c>
-      <c r="I11" s="1">
-        <v>367.8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.9</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4769,15 +4721,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="1">
-        <v>580</v>
-      </c>
-      <c r="I12" s="1">
-        <v>684.3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2.7</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4790,15 +4736,9 @@
         <v>0</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="1">
-        <v>590</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1600</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2.8</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4811,15 +4751,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="1">
-        <v>600</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2167.8000000000002</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4.8</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -6335,7 +6269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>

--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49245AF3-8002-0C41-A34E-08AC64C2EED4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B0744-D8F7-3F41-AF2F-FD6E7FEB013D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Voltaje" sheetId="4" r:id="rId2"/>
-    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId3"/>
-    <sheet name="intensidad" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
-    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId6"/>
+    <sheet name="Conteos_Distancia" sheetId="7" r:id="rId2"/>
+    <sheet name="Voltaje" sheetId="4" r:id="rId3"/>
+    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId4"/>
+    <sheet name="intensidad" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId6"/>
+    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t xml:space="preserve">Conteo </t>
   </si>
@@ -126,6 +127,15 @@
   </si>
   <si>
     <t>Conteos cerrados</t>
+  </si>
+  <si>
+    <t>Voltaje</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Conteos</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C740E60-D83F-4A14-9D0C-564B2794EC32}">
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3920,10 +3930,432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53DF98-65BE-384F-99B7-FF3E57E36A4E}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>590</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>590</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>590</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>590</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>590</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>590</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>590</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>590</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>590</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>590</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>590</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>590</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>590</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>590</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>590</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>590</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>590</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>590</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>590</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>590</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>590</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>590</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>590</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>590</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>590</v>
+      </c>
+      <c r="B26">
+        <v>2.5</v>
+      </c>
+      <c r="C26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>590</v>
+      </c>
+      <c r="B27">
+        <v>2.5</v>
+      </c>
+      <c r="C27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>590</v>
+      </c>
+      <c r="B28">
+        <v>2.5</v>
+      </c>
+      <c r="C28">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>590</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>590</v>
+      </c>
+      <c r="B30">
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>590</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>590</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>590</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>590</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>590</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>590</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>590</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB3E27-8E65-43B9-BF54-2A7CAFD56794}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:AA11"/>
     </sheetView>
   </sheetViews>
@@ -4544,12 +4976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC97A6DA-62ED-9145-A887-23E5222790CF}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A55" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5817,12 +6249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682B2EF-EAEB-41C5-9B46-EE1E6D2FCDB9}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6146,11 +6578,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF8B4CD-B255-493C-804E-9A31BC6E0AF3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F5"/>
     </sheetView>
   </sheetViews>
@@ -6265,11 +6697,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>

--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B0744-D8F7-3F41-AF2F-FD6E7FEB013D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB8733-0880-C547-A4F5-74A6C7A48C94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Conteos_Distancia" sheetId="7" r:id="rId2"/>
-    <sheet name="Voltaje" sheetId="4" r:id="rId3"/>
-    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId4"/>
-    <sheet name="intensidad" sheetId="3" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId6"/>
-    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId7"/>
+    <sheet name="Conteos_Distancia_doble" sheetId="7" r:id="rId2"/>
+    <sheet name="Conteos_Distancia_una" sheetId="8" r:id="rId3"/>
+    <sheet name="Voltaje" sheetId="4" r:id="rId4"/>
+    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId5"/>
+    <sheet name="intensidad" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
+    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t xml:space="preserve">Conteo </t>
   </si>
@@ -2333,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C740E60-D83F-4A14-9D0C-564B2794EC32}">
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3931,10 +3932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53DF98-65BE-384F-99B7-FF3E57E36A4E}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:P261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4115,7 +4116,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>590</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>590</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>590</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>590</v>
       </c>
@@ -4158,8 +4159,32 @@
       <c r="C20">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>590</v>
       </c>
@@ -4169,8 +4194,11 @@
       <c r="C21">
         <v>185</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>590</v>
       </c>
@@ -4181,7 +4209,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>590</v>
       </c>
@@ -4192,7 +4220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>590</v>
       </c>
@@ -4203,7 +4231,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>590</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>590</v>
       </c>
@@ -4225,7 +4253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>590</v>
       </c>
@@ -4236,7 +4264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>590</v>
       </c>
@@ -4247,7 +4275,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>590</v>
       </c>
@@ -4258,7 +4286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>590</v>
       </c>
@@ -4269,7 +4297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>590</v>
       </c>
@@ -4280,7 +4308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>590</v>
       </c>
@@ -4344,6 +4372,2470 @@
       </c>
       <c r="C37">
         <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>530</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>530</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>530</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>530</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>530</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>530</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>530</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>530</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>530</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>530</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>530</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>530</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>530</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>530</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>530</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>530</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>530</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>530</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>530</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>530</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>530</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>530</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>530</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>530</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>530</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>530</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>530</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>530</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>530</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>530</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>530</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>530</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>530</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>530</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>530</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>530</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>530</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>530</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>530</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>530</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>530</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>530</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>530</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>530</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>530</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>530</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>530</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>530</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>530</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>530</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>530</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>530</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>530</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>530</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>530</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>530</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>530</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>530</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>530</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>530</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>530</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>530</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>530</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>530</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>530</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>530</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>530</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>530</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>530</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>530</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>530</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>530</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>530</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>530</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>530</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>530</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>530</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>530</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>530</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>530</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>530</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>530</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>530</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>530</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>530</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>530</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>530</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>530</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>530</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>530</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>530</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>530</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>530</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>530</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>530</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>530</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>530</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>530</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>530</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>530</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>530</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>530</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>530</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>530</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>530</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>530</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>530</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>530</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>530</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>530</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>530</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>530</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>530</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>530</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>530</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>530</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>530</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>530</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>530</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>530</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>530</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>530</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>530</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>530</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>530</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>530</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>530</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>530</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>530</v>
+      </c>
+      <c r="B166">
+        <v>2.5</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>530</v>
+      </c>
+      <c r="B167">
+        <v>2.5</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>530</v>
+      </c>
+      <c r="B168">
+        <v>2.5</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>530</v>
+      </c>
+      <c r="B169">
+        <v>2.5</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>530</v>
+      </c>
+      <c r="B170">
+        <v>2.5</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>530</v>
+      </c>
+      <c r="B171">
+        <v>2.5</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>530</v>
+      </c>
+      <c r="B172">
+        <v>2.5</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>530</v>
+      </c>
+      <c r="B173">
+        <v>2.5</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>530</v>
+      </c>
+      <c r="B174">
+        <v>2.5</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>530</v>
+      </c>
+      <c r="B175">
+        <v>2.5</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>530</v>
+      </c>
+      <c r="B176">
+        <v>2.5</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>530</v>
+      </c>
+      <c r="B177">
+        <v>2.5</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>530</v>
+      </c>
+      <c r="B178">
+        <v>2.5</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>530</v>
+      </c>
+      <c r="B179">
+        <v>2.5</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>530</v>
+      </c>
+      <c r="B180">
+        <v>2.5</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>530</v>
+      </c>
+      <c r="B181">
+        <v>2.5</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>530</v>
+      </c>
+      <c r="B182">
+        <v>2.5</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>530</v>
+      </c>
+      <c r="B183">
+        <v>2.5</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>530</v>
+      </c>
+      <c r="B184">
+        <v>2.5</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>530</v>
+      </c>
+      <c r="B185">
+        <v>2.5</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>530</v>
+      </c>
+      <c r="B186">
+        <v>2.5</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>530</v>
+      </c>
+      <c r="B187">
+        <v>2.5</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>530</v>
+      </c>
+      <c r="B188">
+        <v>2.5</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>530</v>
+      </c>
+      <c r="B189">
+        <v>2.5</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>530</v>
+      </c>
+      <c r="B190">
+        <v>2.5</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>530</v>
+      </c>
+      <c r="B191">
+        <v>2.5</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>530</v>
+      </c>
+      <c r="B192">
+        <v>2.5</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>530</v>
+      </c>
+      <c r="B193">
+        <v>2.5</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>530</v>
+      </c>
+      <c r="B194">
+        <v>2.5</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>530</v>
+      </c>
+      <c r="B195">
+        <v>2.5</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>530</v>
+      </c>
+      <c r="B196">
+        <v>2.5</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>530</v>
+      </c>
+      <c r="B197">
+        <v>2.5</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>530</v>
+      </c>
+      <c r="B198">
+        <v>1.5</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>530</v>
+      </c>
+      <c r="B199">
+        <v>1.5</v>
+      </c>
+      <c r="C199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>530</v>
+      </c>
+      <c r="B200">
+        <v>1.5</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>530</v>
+      </c>
+      <c r="B201">
+        <v>1.5</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>530</v>
+      </c>
+      <c r="B202">
+        <v>1.5</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>530</v>
+      </c>
+      <c r="B203">
+        <v>1.5</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>530</v>
+      </c>
+      <c r="B204">
+        <v>1.5</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>530</v>
+      </c>
+      <c r="B205">
+        <v>1.5</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>530</v>
+      </c>
+      <c r="B206">
+        <v>1.5</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>530</v>
+      </c>
+      <c r="B207">
+        <v>1.5</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>530</v>
+      </c>
+      <c r="B208">
+        <v>1.5</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>530</v>
+      </c>
+      <c r="B209">
+        <v>1.5</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>530</v>
+      </c>
+      <c r="B210">
+        <v>1.5</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>530</v>
+      </c>
+      <c r="B211">
+        <v>1.5</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>530</v>
+      </c>
+      <c r="B212">
+        <v>1.5</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>530</v>
+      </c>
+      <c r="B213">
+        <v>1.5</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>530</v>
+      </c>
+      <c r="B214">
+        <v>1.5</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>530</v>
+      </c>
+      <c r="B215">
+        <v>1.5</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>530</v>
+      </c>
+      <c r="B216">
+        <v>1.5</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>530</v>
+      </c>
+      <c r="B217">
+        <v>1.5</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>530</v>
+      </c>
+      <c r="B218">
+        <v>1.5</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>530</v>
+      </c>
+      <c r="B219">
+        <v>1.5</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>530</v>
+      </c>
+      <c r="B220">
+        <v>1.5</v>
+      </c>
+      <c r="C220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>530</v>
+      </c>
+      <c r="B221">
+        <v>1.5</v>
+      </c>
+      <c r="C221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>530</v>
+      </c>
+      <c r="B222">
+        <v>1.5</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>530</v>
+      </c>
+      <c r="B223">
+        <v>1.5</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>530</v>
+      </c>
+      <c r="B224">
+        <v>1.5</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>530</v>
+      </c>
+      <c r="B225">
+        <v>1.5</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>530</v>
+      </c>
+      <c r="B226">
+        <v>1.5</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>530</v>
+      </c>
+      <c r="B227">
+        <v>1.5</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>530</v>
+      </c>
+      <c r="B228">
+        <v>1.5</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>530</v>
+      </c>
+      <c r="B229">
+        <v>0.5</v>
+      </c>
+      <c r="C229">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>530</v>
+      </c>
+      <c r="B230">
+        <v>0.5</v>
+      </c>
+      <c r="C230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>530</v>
+      </c>
+      <c r="B231">
+        <v>0.5</v>
+      </c>
+      <c r="C231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>530</v>
+      </c>
+      <c r="B232">
+        <v>0.5</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>530</v>
+      </c>
+      <c r="B233">
+        <v>0.5</v>
+      </c>
+      <c r="C233">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>530</v>
+      </c>
+      <c r="B234">
+        <v>0.5</v>
+      </c>
+      <c r="C234">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>530</v>
+      </c>
+      <c r="B235">
+        <v>0.5</v>
+      </c>
+      <c r="C235">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>530</v>
+      </c>
+      <c r="B236">
+        <v>0.5</v>
+      </c>
+      <c r="C236">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>530</v>
+      </c>
+      <c r="B237">
+        <v>0.5</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>530</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>530</v>
+      </c>
+      <c r="B239">
+        <v>0.5</v>
+      </c>
+      <c r="C239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>530</v>
+      </c>
+      <c r="B240">
+        <v>0.5</v>
+      </c>
+      <c r="C240">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>530</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>530</v>
+      </c>
+      <c r="B242">
+        <v>0.5</v>
+      </c>
+      <c r="C242">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>530</v>
+      </c>
+      <c r="B243">
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>530</v>
+      </c>
+      <c r="B244">
+        <v>0.5</v>
+      </c>
+      <c r="C244">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>530</v>
+      </c>
+      <c r="B245">
+        <v>0.5</v>
+      </c>
+      <c r="C245">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>530</v>
+      </c>
+      <c r="B246">
+        <v>0.5</v>
+      </c>
+      <c r="C246">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>530</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>530</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>530</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>530</v>
+      </c>
+      <c r="B250">
+        <v>0.5</v>
+      </c>
+      <c r="C250">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>530</v>
+      </c>
+      <c r="B251">
+        <v>0.5</v>
+      </c>
+      <c r="C251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>530</v>
+      </c>
+      <c r="B252">
+        <v>0.5</v>
+      </c>
+      <c r="C252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>530</v>
+      </c>
+      <c r="B253">
+        <v>0.5</v>
+      </c>
+      <c r="C253">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>530</v>
+      </c>
+      <c r="B254">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>530</v>
+      </c>
+      <c r="B255">
+        <v>0.5</v>
+      </c>
+      <c r="C255">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>530</v>
+      </c>
+      <c r="B256">
+        <v>0.5</v>
+      </c>
+      <c r="C256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>530</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>530</v>
+      </c>
+      <c r="B258">
+        <v>0.5</v>
+      </c>
+      <c r="C258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>530</v>
+      </c>
+      <c r="B259">
+        <v>0.5</v>
+      </c>
+      <c r="C259">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>530</v>
+      </c>
+      <c r="B260">
+        <v>0.5</v>
+      </c>
+      <c r="C260">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>530</v>
+      </c>
+      <c r="B261">
+        <v>0.5</v>
+      </c>
+      <c r="C261">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4352,11 +6844,1445 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC5568-9C50-344D-ABCE-EED9C6F60A35}">
+  <dimension ref="A1:C129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>530</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>530</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>530</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>530</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>530</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>530</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>530</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>530</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>530</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>530</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>530</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>530</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>530</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>530</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>530</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>530</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>530</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>530</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>530</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>530</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>530</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>530</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>530</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>530</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>530</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>530</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>530</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>530</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>530</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>530</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>530</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>530</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>530</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>530</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>530</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>530</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>530</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>530</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>530</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>530</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>530</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>530</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>530</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>530</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>530</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>530</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>530</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>530</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>530</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>530</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>530</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>530</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>530</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>530</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>530</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>530</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>530</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>530</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>530</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>530</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>530</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>530</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>530</v>
+      </c>
+      <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>530</v>
+      </c>
+      <c r="B65">
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>530</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>530</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>530</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>530</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>530</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>530</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>530</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>530</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>530</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>530</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>530</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>530</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>530</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>530</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>530</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>530</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>530</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>530</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>530</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>530</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>530</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>530</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>530</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>530</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>530</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>530</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>530</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>530</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>530</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>530</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>530</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>530</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>530</v>
+      </c>
+      <c r="B98">
+        <v>1.5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>530</v>
+      </c>
+      <c r="B99">
+        <v>1.5</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>530</v>
+      </c>
+      <c r="B100">
+        <v>1.5</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>530</v>
+      </c>
+      <c r="B101">
+        <v>1.5</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>530</v>
+      </c>
+      <c r="B102">
+        <v>1.5</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>530</v>
+      </c>
+      <c r="B103">
+        <v>1.5</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>530</v>
+      </c>
+      <c r="B104">
+        <v>1.5</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>530</v>
+      </c>
+      <c r="B105">
+        <v>1.5</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>530</v>
+      </c>
+      <c r="B106">
+        <v>1.5</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>530</v>
+      </c>
+      <c r="B107">
+        <v>1.5</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>530</v>
+      </c>
+      <c r="B108">
+        <v>1.5</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>530</v>
+      </c>
+      <c r="B109">
+        <v>1.5</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>530</v>
+      </c>
+      <c r="B110">
+        <v>1.5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>530</v>
+      </c>
+      <c r="B111">
+        <v>1.5</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>530</v>
+      </c>
+      <c r="B112">
+        <v>1.5</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>530</v>
+      </c>
+      <c r="B113">
+        <v>1.5</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>530</v>
+      </c>
+      <c r="B114">
+        <v>1.5</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>530</v>
+      </c>
+      <c r="B115">
+        <v>1.5</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>530</v>
+      </c>
+      <c r="B116">
+        <v>1.5</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>530</v>
+      </c>
+      <c r="B117">
+        <v>1.5</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>530</v>
+      </c>
+      <c r="B118">
+        <v>1.5</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>530</v>
+      </c>
+      <c r="B119">
+        <v>1.5</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>530</v>
+      </c>
+      <c r="B120">
+        <v>1.5</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>530</v>
+      </c>
+      <c r="B121">
+        <v>1.5</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>530</v>
+      </c>
+      <c r="B122">
+        <v>1.5</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>530</v>
+      </c>
+      <c r="B123">
+        <v>1.5</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>530</v>
+      </c>
+      <c r="B124">
+        <v>1.5</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>530</v>
+      </c>
+      <c r="B125">
+        <v>1.5</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>530</v>
+      </c>
+      <c r="B126">
+        <v>1.5</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>530</v>
+      </c>
+      <c r="B127">
+        <v>1.5</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>530</v>
+      </c>
+      <c r="B128">
+        <v>1.5</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>530</v>
+      </c>
+      <c r="B129">
+        <v>1.5</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB3E27-8E65-43B9-BF54-2A7CAFD56794}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AA11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4976,12 +8902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC97A6DA-62ED-9145-A887-23E5222790CF}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A79" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6249,7 +10175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682B2EF-EAEB-41C5-9B46-EE1E6D2FCDB9}">
   <dimension ref="A1:R14"/>
   <sheetViews>
@@ -6578,7 +10504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF8B4CD-B255-493C-804E-9A31BC6E0AF3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -6697,12 +10623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6717,633 +10643,713 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1090</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1181</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1104</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1308</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1172</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1207</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1045</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1122</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>986</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>509</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>492</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>503</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>518</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>477</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>514</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>501</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>471</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>474</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>496</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>334</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>332</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>300</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>326</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>320</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>314</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>311</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>335</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>331</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>312</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>233</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>219</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>206</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>198</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>202</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>208</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>209</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>218</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>111</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>126</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
         <v>8</v>
       </c>
     </row>

--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB8733-0880-C547-A4F5-74A6C7A48C94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4494C-6E8D-1F4B-940F-FB06AEA7CF77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t xml:space="preserve">Conteo </t>
   </si>
@@ -3932,10 +3932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53DF98-65BE-384F-99B7-FF3E57E36A4E}">
-  <dimension ref="A1:P261"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4116,7 +4116,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>590</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>590</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>590</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>590</v>
       </c>
@@ -4159,32 +4159,8 @@
       <c r="C20">
         <v>150</v>
       </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>590</v>
       </c>
@@ -4194,11 +4170,8 @@
       <c r="C21">
         <v>185</v>
       </c>
-      <c r="I21">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>590</v>
       </c>
@@ -4209,7 +4182,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>590</v>
       </c>
@@ -4220,7 +4193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>590</v>
       </c>
@@ -4231,7 +4204,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>590</v>
       </c>
@@ -4242,7 +4215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>590</v>
       </c>
@@ -4253,7 +4226,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>590</v>
       </c>
@@ -4264,7 +4237,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>590</v>
       </c>
@@ -4275,7 +4248,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>590</v>
       </c>
@@ -4286,7 +4259,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>590</v>
       </c>
@@ -4297,7 +4270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>590</v>
       </c>
@@ -4308,7 +4281,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>590</v>
       </c>

--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4494C-6E8D-1F4B-940F-FB06AEA7CF77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED2CC5-B52E-8740-A85E-DB0A9DA0A811}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L34"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3934,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53DF98-65BE-384F-99B7-FF3E57E36A4E}">
   <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10600,8 +10600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Double_Slit/Datos/practica1Avanzado.xlsx
+++ b/Double_Slit/Datos/practica1Avanzado.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Double_Slit/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamontana\Dropbox\Laboratorio_Avanzado\Double_Slit\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED2CC5-B52E-8740-A85E-DB0A9DA0A811}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1440A-938B-46C7-84B8-753835A2DF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{C141B3CB-699A-4992-BD32-0806405F0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Conteos_Distancia_doble" sheetId="7" r:id="rId2"/>
-    <sheet name="Conteos_Distancia_una" sheetId="8" r:id="rId3"/>
-    <sheet name="Voltaje" sheetId="4" r:id="rId4"/>
-    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId5"/>
-    <sheet name="intensidad" sheetId="3" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
-    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId8"/>
+    <sheet name="Conteos_Distribución" sheetId="9" r:id="rId2"/>
+    <sheet name="Conteos_Distancia_doble" sheetId="7" r:id="rId3"/>
+    <sheet name="Conteos_Distancia_una" sheetId="8" r:id="rId4"/>
+    <sheet name="Voltaje" sheetId="4" r:id="rId5"/>
+    <sheet name="Exp_Voltaje_VS_Conteos" sheetId="5" r:id="rId6"/>
+    <sheet name="intensidad" sheetId="3" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
+    <sheet name="Conteos_intensidad" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t xml:space="preserve">Conteo </t>
   </si>
@@ -143,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +164,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +219,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -246,7 +256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -414,7 +424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836123664"/>
@@ -476,7 +486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="652990224"/>
@@ -524,7 +534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -538,7 +548,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -575,7 +585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -725,7 +735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836164432"/>
@@ -787,7 +797,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="845911856"/>
@@ -835,7 +845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2036,7 +2046,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2334,13 +2344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C740E60-D83F-4A14-9D0C-564B2794EC32}">
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2777,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2982,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3108,7 +3118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3149,7 +3159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3272,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3395,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3436,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3518,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -3559,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3723,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3845,82 +3855,82 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3931,6 +3941,369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A51EA-D493-494E-8EDE-3D0D114793EB}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53DF98-65BE-384F-99B7-FF3E57E36A4E}">
   <dimension ref="A1:C261"/>
   <sheetViews>
@@ -3938,9 +4311,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3951,7 +4324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>590</v>
       </c>
@@ -3962,7 +4335,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>590</v>
       </c>
@@ -3973,7 +4346,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>590</v>
       </c>
@@ -3984,7 +4357,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>590</v>
       </c>
@@ -3995,7 +4368,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>590</v>
       </c>
@@ -4006,7 +4379,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>590</v>
       </c>
@@ -4017,7 +4390,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>590</v>
       </c>
@@ -4028,7 +4401,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>590</v>
       </c>
@@ -4039,7 +4412,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>590</v>
       </c>
@@ -4050,7 +4423,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>590</v>
       </c>
@@ -4061,7 +4434,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>590</v>
       </c>
@@ -4072,7 +4445,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>590</v>
       </c>
@@ -4083,7 +4456,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>590</v>
       </c>
@@ -4094,7 +4467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>590</v>
       </c>
@@ -4105,7 +4478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>590</v>
       </c>
@@ -4116,7 +4489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>590</v>
       </c>
@@ -4127,7 +4500,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>590</v>
       </c>
@@ -4138,7 +4511,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>590</v>
       </c>
@@ -4149,7 +4522,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>590</v>
       </c>
@@ -4160,7 +4533,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>590</v>
       </c>
@@ -4171,7 +4544,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>590</v>
       </c>
@@ -4182,7 +4555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>590</v>
       </c>
@@ -4193,7 +4566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>590</v>
       </c>
@@ -4204,7 +4577,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>590</v>
       </c>
@@ -4215,7 +4588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>590</v>
       </c>
@@ -4226,7 +4599,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>590</v>
       </c>
@@ -4237,7 +4610,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>590</v>
       </c>
@@ -4248,7 +4621,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>590</v>
       </c>
@@ -4259,7 +4632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>590</v>
       </c>
@@ -4270,7 +4643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>590</v>
       </c>
@@ -4281,7 +4654,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>590</v>
       </c>
@@ -4292,7 +4665,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>590</v>
       </c>
@@ -4303,7 +4676,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>590</v>
       </c>
@@ -4314,7 +4687,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>590</v>
       </c>
@@ -4325,7 +4698,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>590</v>
       </c>
@@ -4336,7 +4709,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>590</v>
       </c>
@@ -4347,7 +4720,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>530</v>
       </c>
@@ -4358,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>530</v>
       </c>
@@ -4369,7 +4742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>530</v>
       </c>
@@ -4380,7 +4753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>530</v>
       </c>
@@ -4391,7 +4764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>530</v>
       </c>
@@ -4402,7 +4775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>530</v>
       </c>
@@ -4413,7 +4786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>530</v>
       </c>
@@ -4424,7 +4797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>530</v>
       </c>
@@ -4435,7 +4808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>530</v>
       </c>
@@ -4446,7 +4819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>530</v>
       </c>
@@ -4457,7 +4830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>530</v>
       </c>
@@ -4468,7 +4841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>530</v>
       </c>
@@ -4479,7 +4852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>530</v>
       </c>
@@ -4490,7 +4863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>530</v>
       </c>
@@ -4501,7 +4874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>530</v>
       </c>
@@ -4512,7 +4885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>530</v>
       </c>
@@ -4523,7 +4896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>530</v>
       </c>
@@ -4534,7 +4907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530</v>
       </c>
@@ -4545,7 +4918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>530</v>
       </c>
@@ -4556,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>530</v>
       </c>
@@ -4567,7 +4940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>530</v>
       </c>
@@ -4578,7 +4951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>530</v>
       </c>
@@ -4589,7 +4962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>530</v>
       </c>
@@ -4600,7 +4973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>530</v>
       </c>
@@ -4611,7 +4984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>530</v>
       </c>
@@ -4622,7 +4995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>530</v>
       </c>
@@ -4633,7 +5006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>530</v>
       </c>
@@ -4644,7 +5017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>530</v>
       </c>
@@ -4655,7 +5028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>530</v>
       </c>
@@ -4666,7 +5039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>530</v>
       </c>
@@ -4677,7 +5050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>530</v>
       </c>
@@ -4688,7 +5061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>530</v>
       </c>
@@ -4699,7 +5072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>530</v>
       </c>
@@ -4710,7 +5083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>530</v>
       </c>
@@ -4721,7 +5094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>530</v>
       </c>
@@ -4732,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>530</v>
       </c>
@@ -4743,7 +5116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>530</v>
       </c>
@@ -4754,7 +5127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>530</v>
       </c>
@@ -4765,7 +5138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>530</v>
       </c>
@@ -4776,7 +5149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>530</v>
       </c>
@@ -4787,7 +5160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>530</v>
       </c>
@@ -4798,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>530</v>
       </c>
@@ -4809,7 +5182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>530</v>
       </c>
@@ -4820,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>530</v>
       </c>
@@ -4831,7 +5204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>530</v>
       </c>
@@ -4842,7 +5215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>530</v>
       </c>
@@ -4853,7 +5226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>530</v>
       </c>
@@ -4864,7 +5237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>530</v>
       </c>
@@ -4875,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>530</v>
       </c>
@@ -4886,7 +5259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>530</v>
       </c>
@@ -4897,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>530</v>
       </c>
@@ -4908,7 +5281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>530</v>
       </c>
@@ -4919,7 +5292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>530</v>
       </c>
@@ -4930,7 +5303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>530</v>
       </c>
@@ -4941,7 +5314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>530</v>
       </c>
@@ -4952,7 +5325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>530</v>
       </c>
@@ -4963,7 +5336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>530</v>
       </c>
@@ -4974,7 +5347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>530</v>
       </c>
@@ -4985,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>530</v>
       </c>
@@ -4996,7 +5369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>530</v>
       </c>
@@ -5007,7 +5380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>530</v>
       </c>
@@ -5018,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>530</v>
       </c>
@@ -5029,7 +5402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>530</v>
       </c>
@@ -5040,7 +5413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>530</v>
       </c>
@@ -5051,7 +5424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>530</v>
       </c>
@@ -5062,7 +5435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>530</v>
       </c>
@@ -5073,7 +5446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>530</v>
       </c>
@@ -5084,7 +5457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>530</v>
       </c>
@@ -5095,7 +5468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>530</v>
       </c>
@@ -5106,7 +5479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>530</v>
       </c>
@@ -5117,7 +5490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>530</v>
       </c>
@@ -5128,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>530</v>
       </c>
@@ -5139,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>530</v>
       </c>
@@ -5150,7 +5523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>530</v>
       </c>
@@ -5161,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>530</v>
       </c>
@@ -5172,7 +5545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>530</v>
       </c>
@@ -5183,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>530</v>
       </c>
@@ -5194,7 +5567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>530</v>
       </c>
@@ -5205,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>530</v>
       </c>
@@ -5216,7 +5589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>530</v>
       </c>
@@ -5227,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>530</v>
       </c>
@@ -5238,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>530</v>
       </c>
@@ -5249,7 +5622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>530</v>
       </c>
@@ -5260,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>530</v>
       </c>
@@ -5271,7 +5644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>530</v>
       </c>
@@ -5282,7 +5655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>530</v>
       </c>
@@ -5293,7 +5666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>530</v>
       </c>
@@ -5304,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>530</v>
       </c>
@@ -5315,7 +5688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>530</v>
       </c>
@@ -5326,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>530</v>
       </c>
@@ -5337,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>530</v>
       </c>
@@ -5348,7 +5721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>530</v>
       </c>
@@ -5359,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>530</v>
       </c>
@@ -5370,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>530</v>
       </c>
@@ -5381,7 +5754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>530</v>
       </c>
@@ -5392,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>530</v>
       </c>
@@ -5403,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>530</v>
       </c>
@@ -5414,7 +5787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>530</v>
       </c>
@@ -5425,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>530</v>
       </c>
@@ -5436,7 +5809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>530</v>
       </c>
@@ -5447,7 +5820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>530</v>
       </c>
@@ -5458,7 +5831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>530</v>
       </c>
@@ -5469,7 +5842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>530</v>
       </c>
@@ -5480,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>530</v>
       </c>
@@ -5491,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>530</v>
       </c>
@@ -5502,7 +5875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>530</v>
       </c>
@@ -5513,7 +5886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>530</v>
       </c>
@@ -5524,7 +5897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>530</v>
       </c>
@@ -5535,7 +5908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>530</v>
       </c>
@@ -5546,7 +5919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>530</v>
       </c>
@@ -5557,7 +5930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>530</v>
       </c>
@@ -5568,7 +5941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>530</v>
       </c>
@@ -5579,7 +5952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>530</v>
       </c>
@@ -5590,7 +5963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>530</v>
       </c>
@@ -5601,7 +5974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>530</v>
       </c>
@@ -5612,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>530</v>
       </c>
@@ -5623,7 +5996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>530</v>
       </c>
@@ -5634,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>530</v>
       </c>
@@ -5645,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>530</v>
       </c>
@@ -5656,7 +6029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>530</v>
       </c>
@@ -5667,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>530</v>
       </c>
@@ -5678,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>530</v>
       </c>
@@ -5689,7 +6062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>530</v>
       </c>
@@ -5700,7 +6073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>530</v>
       </c>
@@ -5711,7 +6084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>530</v>
       </c>
@@ -5722,7 +6095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>530</v>
       </c>
@@ -5733,7 +6106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>530</v>
       </c>
@@ -5744,7 +6117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>530</v>
       </c>
@@ -5755,7 +6128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>530</v>
       </c>
@@ -5766,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>530</v>
       </c>
@@ -5777,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>530</v>
       </c>
@@ -5788,7 +6161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>530</v>
       </c>
@@ -5799,7 +6172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>530</v>
       </c>
@@ -5810,7 +6183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>530</v>
       </c>
@@ -5821,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>530</v>
       </c>
@@ -5832,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>530</v>
       </c>
@@ -5843,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>530</v>
       </c>
@@ -5854,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>530</v>
       </c>
@@ -5865,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>530</v>
       </c>
@@ -5876,7 +6249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>530</v>
       </c>
@@ -5887,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>530</v>
       </c>
@@ -5898,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>530</v>
       </c>
@@ -5909,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>530</v>
       </c>
@@ -5920,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>530</v>
       </c>
@@ -5931,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>530</v>
       </c>
@@ -5942,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>530</v>
       </c>
@@ -5953,7 +6326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>530</v>
       </c>
@@ -5964,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>530</v>
       </c>
@@ -5975,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>530</v>
       </c>
@@ -5986,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>530</v>
       </c>
@@ -5997,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>530</v>
       </c>
@@ -6008,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>530</v>
       </c>
@@ -6019,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>530</v>
       </c>
@@ -6030,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>530</v>
       </c>
@@ -6041,7 +6414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>530</v>
       </c>
@@ -6052,7 +6425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>530</v>
       </c>
@@ -6063,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>530</v>
       </c>
@@ -6074,7 +6447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>530</v>
       </c>
@@ -6085,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>530</v>
       </c>
@@ -6096,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>530</v>
       </c>
@@ -6107,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>530</v>
       </c>
@@ -6118,7 +6491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>530</v>
       </c>
@@ -6129,7 +6502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>530</v>
       </c>
@@ -6140,7 +6513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>530</v>
       </c>
@@ -6151,7 +6524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>530</v>
       </c>
@@ -6162,7 +6535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>530</v>
       </c>
@@ -6173,7 +6546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>530</v>
       </c>
@@ -6184,7 +6557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>530</v>
       </c>
@@ -6195,7 +6568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>530</v>
       </c>
@@ -6206,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>530</v>
       </c>
@@ -6217,7 +6590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>530</v>
       </c>
@@ -6228,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>530</v>
       </c>
@@ -6239,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>530</v>
       </c>
@@ -6250,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>530</v>
       </c>
@@ -6261,7 +6634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>530</v>
       </c>
@@ -6272,7 +6645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>530</v>
       </c>
@@ -6283,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>530</v>
       </c>
@@ -6294,7 +6667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>530</v>
       </c>
@@ -6305,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>530</v>
       </c>
@@ -6316,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>530</v>
       </c>
@@ -6327,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>530</v>
       </c>
@@ -6338,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>530</v>
       </c>
@@ -6349,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>530</v>
       </c>
@@ -6360,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>530</v>
       </c>
@@ -6371,7 +6744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>530</v>
       </c>
@@ -6382,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>530</v>
       </c>
@@ -6393,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>530</v>
       </c>
@@ -6404,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>530</v>
       </c>
@@ -6415,7 +6788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>530</v>
       </c>
@@ -6426,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>530</v>
       </c>
@@ -6437,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>530</v>
       </c>
@@ -6448,7 +6821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>530</v>
       </c>
@@ -6459,7 +6832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>530</v>
       </c>
@@ -6470,7 +6843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>530</v>
       </c>
@@ -6481,7 +6854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>530</v>
       </c>
@@ -6492,7 +6865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>530</v>
       </c>
@@ -6503,7 +6876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>530</v>
       </c>
@@ -6514,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>530</v>
       </c>
@@ -6525,7 +6898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>530</v>
       </c>
@@ -6536,7 +6909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>530</v>
       </c>
@@ -6547,7 +6920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>530</v>
       </c>
@@ -6558,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>530</v>
       </c>
@@ -6569,7 +6942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>530</v>
       </c>
@@ -6580,7 +6953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>530</v>
       </c>
@@ -6591,7 +6964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>530</v>
       </c>
@@ -6602,7 +6975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>530</v>
       </c>
@@ -6613,7 +6986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>530</v>
       </c>
@@ -6624,7 +6997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>530</v>
       </c>
@@ -6635,7 +7008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>530</v>
       </c>
@@ -6646,7 +7019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>530</v>
       </c>
@@ -6657,7 +7030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>530</v>
       </c>
@@ -6668,7 +7041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>530</v>
       </c>
@@ -6679,7 +7052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>530</v>
       </c>
@@ -6690,7 +7063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>530</v>
       </c>
@@ -6701,7 +7074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>530</v>
       </c>
@@ -6712,7 +7085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>530</v>
       </c>
@@ -6723,7 +7096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>530</v>
       </c>
@@ -6734,7 +7107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>530</v>
       </c>
@@ -6745,7 +7118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>530</v>
       </c>
@@ -6756,7 +7129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>530</v>
       </c>
@@ -6767,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>530</v>
       </c>
@@ -6778,7 +7151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>530</v>
       </c>
@@ -6789,7 +7162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>530</v>
       </c>
@@ -6800,7 +7173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>530</v>
       </c>
@@ -6816,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC5568-9C50-344D-ABCE-EED9C6F60A35}">
   <dimension ref="A1:C129"/>
   <sheetViews>
@@ -6824,9 +7197,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -6837,7 +7210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>530</v>
       </c>
@@ -6848,7 +7221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>530</v>
       </c>
@@ -6859,7 +7232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>530</v>
       </c>
@@ -6870,7 +7243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>530</v>
       </c>
@@ -6881,7 +7254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>530</v>
       </c>
@@ -6892,7 +7265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>530</v>
       </c>
@@ -6903,7 +7276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>530</v>
       </c>
@@ -6914,7 +7287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>530</v>
       </c>
@@ -6925,7 +7298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>530</v>
       </c>
@@ -6936,7 +7309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>530</v>
       </c>
@@ -6947,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>530</v>
       </c>
@@ -6958,7 +7331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>530</v>
       </c>
@@ -6969,7 +7342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>530</v>
       </c>
@@ -6980,7 +7353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>530</v>
       </c>
@@ -6991,7 +7364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>530</v>
       </c>
@@ -7002,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>530</v>
       </c>
@@ -7013,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>530</v>
       </c>
@@ -7024,7 +7397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>530</v>
       </c>
@@ -7035,7 +7408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>530</v>
       </c>
@@ -7046,7 +7419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>530</v>
       </c>
@@ -7057,7 +7430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>530</v>
       </c>
@@ -7068,7 +7441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>530</v>
       </c>
@@ -7079,7 +7452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>530</v>
       </c>
@@ -7090,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>530</v>
       </c>
@@ -7101,7 +7474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>530</v>
       </c>
@@ -7112,7 +7485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>530</v>
       </c>
@@ -7123,7 +7496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>530</v>
       </c>
@@ -7134,7 +7507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>530</v>
       </c>
@@ -7145,7 +7518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>530</v>
       </c>
@@ -7156,7 +7529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>530</v>
       </c>
@@ -7167,7 +7540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>530</v>
       </c>
@@ -7178,7 +7551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>530</v>
       </c>
@@ -7189,7 +7562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>530</v>
       </c>
@@ -7200,7 +7573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>530</v>
       </c>
@@ -7211,7 +7584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>530</v>
       </c>
@@ -7222,7 +7595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>530</v>
       </c>
@@ -7233,7 +7606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>530</v>
       </c>
@@ -7244,7 +7617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>530</v>
       </c>
@@ -7255,7 +7628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>530</v>
       </c>
@@ -7266,7 +7639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>530</v>
       </c>
@@ -7277,7 +7650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>530</v>
       </c>
@@ -7288,7 +7661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>530</v>
       </c>
@@ -7299,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>530</v>
       </c>
@@ -7310,7 +7683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>530</v>
       </c>
@@ -7321,7 +7694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>530</v>
       </c>
@@ -7332,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>530</v>
       </c>
@@ -7343,7 +7716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>530</v>
       </c>
@@ -7354,7 +7727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>530</v>
       </c>
@@ -7365,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>530</v>
       </c>
@@ -7376,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>530</v>
       </c>
@@ -7387,7 +7760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>530</v>
       </c>
@@ -7398,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>530</v>
       </c>
@@ -7409,7 +7782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>530</v>
       </c>
@@ -7420,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530</v>
       </c>
@@ -7431,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>530</v>
       </c>
@@ -7442,7 +7815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>530</v>
       </c>
@@ -7453,7 +7826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>530</v>
       </c>
@@ -7464,7 +7837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>530</v>
       </c>
@@ -7475,7 +7848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>530</v>
       </c>
@@ -7486,7 +7859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>530</v>
       </c>
@@ -7497,7 +7870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>530</v>
       </c>
@@ -7508,7 +7881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>530</v>
       </c>
@@ -7519,7 +7892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>530</v>
       </c>
@@ -7530,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>530</v>
       </c>
@@ -7541,7 +7914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>530</v>
       </c>
@@ -7552,7 +7925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>530</v>
       </c>
@@ -7563,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>530</v>
       </c>
@@ -7574,7 +7947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>530</v>
       </c>
@@ -7585,7 +7958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>530</v>
       </c>
@@ -7596,7 +7969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>530</v>
       </c>
@@ -7607,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>530</v>
       </c>
@@ -7618,7 +7991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>530</v>
       </c>
@@ -7629,7 +8002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>530</v>
       </c>
@@ -7640,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>530</v>
       </c>
@@ -7651,7 +8024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>530</v>
       </c>
@@ -7662,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>530</v>
       </c>
@@ -7673,7 +8046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>530</v>
       </c>
@@ -7684,7 +8057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>530</v>
       </c>
@@ -7695,7 +8068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>530</v>
       </c>
@@ -7706,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>530</v>
       </c>
@@ -7717,7 +8090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>530</v>
       </c>
@@ -7728,7 +8101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>530</v>
       </c>
@@ -7739,7 +8112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>530</v>
       </c>
@@ -7750,7 +8123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>530</v>
       </c>
@@ -7761,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>530</v>
       </c>
@@ -7772,7 +8145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>530</v>
       </c>
@@ -7783,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>530</v>
       </c>
@@ -7794,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>530</v>
       </c>
@@ -7805,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>530</v>
       </c>
@@ -7816,7 +8189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>530</v>
       </c>
@@ -7827,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>530</v>
       </c>
@@ -7838,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>530</v>
       </c>
@@ -7849,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>530</v>
       </c>
@@ -7860,7 +8233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>530</v>
       </c>
@@ -7871,7 +8244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>530</v>
       </c>
@@ -7882,7 +8255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>530</v>
       </c>
@@ -7893,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>530</v>
       </c>
@@ -7904,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>530</v>
       </c>
@@ -7915,7 +8288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>530</v>
       </c>
@@ -7926,7 +8299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>530</v>
       </c>
@@ -7937,7 +8310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>530</v>
       </c>
@@ -7948,7 +8321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>530</v>
       </c>
@@ -7959,7 +8332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>530</v>
       </c>
@@ -7970,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>530</v>
       </c>
@@ -7981,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>530</v>
       </c>
@@ -7992,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>530</v>
       </c>
@@ -8003,7 +8376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>530</v>
       </c>
@@ -8014,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>530</v>
       </c>
@@ -8025,7 +8398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>530</v>
       </c>
@@ -8036,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>530</v>
       </c>
@@ -8047,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>530</v>
       </c>
@@ -8058,7 +8431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>530</v>
       </c>
@@ -8069,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>530</v>
       </c>
@@ -8080,7 +8453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>530</v>
       </c>
@@ -8091,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>530</v>
       </c>
@@ -8102,7 +8475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>530</v>
       </c>
@@ -8113,7 +8486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>530</v>
       </c>
@@ -8124,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>530</v>
       </c>
@@ -8135,7 +8508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>530</v>
       </c>
@@ -8146,7 +8519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>530</v>
       </c>
@@ -8157,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>530</v>
       </c>
@@ -8168,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>530</v>
       </c>
@@ -8179,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>530</v>
       </c>
@@ -8190,7 +8563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>530</v>
       </c>
@@ -8201,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>530</v>
       </c>
@@ -8212,7 +8585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>530</v>
       </c>
@@ -8223,7 +8596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>530</v>
       </c>
@@ -8234,7 +8607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>530</v>
       </c>
@@ -8250,7 +8623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB3E27-8E65-43B9-BF54-2A7CAFD56794}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -8258,12 +8631,12 @@
       <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8328,7 +8701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -8411,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8461,7 +8834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8511,7 +8884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -8561,7 +8934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -8611,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -8661,7 +9034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -8711,7 +9084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -8761,7 +9134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8811,7 +9184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -8849,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>92</v>
       </c>
@@ -8860,12 +9233,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>98</v>
       </c>
@@ -8875,7 +9248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC97A6DA-62ED-9145-A887-23E5222790CF}">
   <dimension ref="A1:J110"/>
   <sheetViews>
@@ -8883,13 +9256,13 @@
       <selection activeCell="B91" sqref="B91:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8900,7 +9273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -8911,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -8922,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -8936,7 +9309,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -8951,7 +9324,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -8966,7 +9339,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -8981,7 +9354,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -8996,7 +9369,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -9011,7 +9384,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -9026,7 +9399,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>510</v>
       </c>
@@ -9041,7 +9414,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>510</v>
       </c>
@@ -9056,7 +9429,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>510</v>
       </c>
@@ -9071,7 +9444,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>510</v>
       </c>
@@ -9086,7 +9459,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>510</v>
       </c>
@@ -9097,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>510</v>
       </c>
@@ -9108,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>510</v>
       </c>
@@ -9119,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>510</v>
       </c>
@@ -9130,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>510</v>
       </c>
@@ -9141,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>520</v>
       </c>
@@ -9152,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>520</v>
       </c>
@@ -9163,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>520</v>
       </c>
@@ -9174,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>520</v>
       </c>
@@ -9185,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>520</v>
       </c>
@@ -9196,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>520</v>
       </c>
@@ -9207,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>520</v>
       </c>
@@ -9218,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>520</v>
       </c>
@@ -9229,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>520</v>
       </c>
@@ -9240,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>530</v>
       </c>
@@ -9251,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>530</v>
       </c>
@@ -9262,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>530</v>
       </c>
@@ -9273,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>530</v>
       </c>
@@ -9284,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>530</v>
       </c>
@@ -9295,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>530</v>
       </c>
@@ -9306,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>530</v>
       </c>
@@ -9317,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>530</v>
       </c>
@@ -9328,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>530</v>
       </c>
@@ -9339,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>540</v>
       </c>
@@ -9350,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>540</v>
       </c>
@@ -9361,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>540</v>
       </c>
@@ -9372,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>540</v>
       </c>
@@ -9383,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>540</v>
       </c>
@@ -9394,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>540</v>
       </c>
@@ -9405,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>540</v>
       </c>
@@ -9416,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>540</v>
       </c>
@@ -9427,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>540</v>
       </c>
@@ -9438,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>550</v>
       </c>
@@ -9449,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>550</v>
       </c>
@@ -9460,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>550</v>
       </c>
@@ -9471,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>550</v>
       </c>
@@ -9482,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>550</v>
       </c>
@@ -9493,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>550</v>
       </c>
@@ -9504,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>550</v>
       </c>
@@ -9515,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>550</v>
       </c>
@@ -9526,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>550</v>
       </c>
@@ -9537,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>550</v>
       </c>
@@ -9548,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>550</v>
       </c>
@@ -9559,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>550</v>
       </c>
@@ -9570,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>550</v>
       </c>
@@ -9581,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>560</v>
       </c>
@@ -9592,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>560</v>
       </c>
@@ -9603,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>560</v>
       </c>
@@ -9614,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>560</v>
       </c>
@@ -9625,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>560</v>
       </c>
@@ -9636,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>560</v>
       </c>
@@ -9647,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>560</v>
       </c>
@@ -9658,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>560</v>
       </c>
@@ -9669,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>560</v>
       </c>
@@ -9680,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>560</v>
       </c>
@@ -9691,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>560</v>
       </c>
@@ -9702,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>570</v>
       </c>
@@ -9713,7 +10086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>570</v>
       </c>
@@ -9724,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>570</v>
       </c>
@@ -9735,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>570</v>
       </c>
@@ -9746,7 +10119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>570</v>
       </c>
@@ -9757,7 +10130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>570</v>
       </c>
@@ -9768,7 +10141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>570</v>
       </c>
@@ -9779,7 +10152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>570</v>
       </c>
@@ -9790,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>570</v>
       </c>
@@ -9801,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>570</v>
       </c>
@@ -9812,7 +10185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>580</v>
       </c>
@@ -9823,7 +10196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>580</v>
       </c>
@@ -9834,7 +10207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>580</v>
       </c>
@@ -9845,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>580</v>
       </c>
@@ -9856,7 +10229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>580</v>
       </c>
@@ -9867,7 +10240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>580</v>
       </c>
@@ -9878,7 +10251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>580</v>
       </c>
@@ -9889,7 +10262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>580</v>
       </c>
@@ -9900,7 +10273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>580</v>
       </c>
@@ -9911,7 +10284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>580</v>
       </c>
@@ -9922,7 +10295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>590</v>
       </c>
@@ -9933,7 +10306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>590</v>
       </c>
@@ -9944,7 +10317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>590</v>
       </c>
@@ -9955,7 +10328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>590</v>
       </c>
@@ -9966,7 +10339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>590</v>
       </c>
@@ -9977,7 +10350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>590</v>
       </c>
@@ -9988,7 +10361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>590</v>
       </c>
@@ -9999,7 +10372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>590</v>
       </c>
@@ -10010,7 +10383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>590</v>
       </c>
@@ -10021,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>590</v>
       </c>
@@ -10032,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>600</v>
       </c>
@@ -10043,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>600</v>
       </c>
@@ -10054,7 +10427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>600</v>
       </c>
@@ -10065,7 +10438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>600</v>
       </c>
@@ -10076,7 +10449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>600</v>
       </c>
@@ -10087,7 +10460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>600</v>
       </c>
@@ -10098,7 +10471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>600</v>
       </c>
@@ -10109,7 +10482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>600</v>
       </c>
@@ -10120,7 +10493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>600</v>
       </c>
@@ -10131,7 +10504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>600</v>
       </c>
@@ -10148,7 +10521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682B2EF-EAEB-41C5-9B46-EE1E6D2FCDB9}">
   <dimension ref="A1:R14"/>
   <sheetViews>
@@ -10156,14 +10529,14 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -10183,7 +10556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -10236,7 +10609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1181</v>
       </c>
@@ -10262,7 +10635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>1104</v>
       </c>
@@ -10288,7 +10661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1308</v>
       </c>
@@ -10314,7 +10687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1172</v>
       </c>
@@ -10340,7 +10713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>1207</v>
       </c>
@@ -10366,7 +10739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>1045</v>
       </c>
@@ -10392,7 +10765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1122</v>
       </c>
@@ -10418,7 +10791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>986</v>
       </c>
@@ -10444,7 +10817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>496</v>
       </c>
@@ -10467,7 +10840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -10477,7 +10850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF8B4CD-B255-493C-804E-9A31BC6E0AF3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -10485,9 +10858,9 @@
       <selection activeCell="E2" sqref="E2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10501,7 +10874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10515,7 +10888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -10529,7 +10902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10543,7 +10916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -10557,7 +10930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10568,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -10579,7 +10952,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10596,17 +10969,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EF22D-C7D7-E942-B30E-F33A938D3EBD}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -10614,7 +10987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -10622,7 +10995,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -10630,7 +11003,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -10638,7 +11011,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -10646,7 +11019,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -10654,7 +11027,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -10662,7 +11035,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -10670,7 +11043,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -10678,7 +11051,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10686,7 +11059,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10694,7 +11067,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10702,7 +11075,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10710,7 +11083,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -10718,7 +11091,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -10726,7 +11099,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -10734,7 +11107,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10742,7 +11115,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -10750,7 +11123,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -10758,7 +11131,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -10766,7 +11139,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -10774,7 +11147,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -10782,7 +11155,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -10790,7 +11163,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -10798,7 +11171,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -10806,7 +11179,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -10814,7 +11187,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -10822,7 +11195,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -10830,7 +11203,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -10838,7 +11211,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -10846,7 +11219,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -10854,7 +11227,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -10862,7 +11235,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -10870,7 +11243,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10878,7 +11251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -10886,7 +11259,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -10894,7 +11267,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -10902,7 +11275,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -10910,7 +11283,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -10918,7 +11291,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -10926,7 +11299,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -10934,7 +11307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -10942,7 +11315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -10950,7 +11323,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -10958,7 +11331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -10966,7 +11339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -10974,7 +11347,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -10982,7 +11355,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -10990,7 +11363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -10998,7 +11371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -11006,7 +11379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -11014,7 +11387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -11022,7 +11395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -11030,7 +11403,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -11038,7 +11411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -11046,7 +11419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -11054,7 +11427,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -11062,7 +11435,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -11070,7 +11443,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -11078,7 +11451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -11086,7 +11459,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -11094,7 +11467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -11102,7 +11475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -11110,7 +11483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -11118,7 +11491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -11126,7 +11499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -11134,7 +11507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -11142,7 +11515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -11150,7 +11523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -11158,7 +11531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -11166,7 +11539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -11174,7 +11547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -11182,7 +11555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -11190,7 +11563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -11198,7 +11571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -11206,7 +11579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -11214,7 +11587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -11222,7 +11595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -11230,7 +11603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -11238,7 +11611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -11246,7 +11619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -11254,7 +11627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -11262,7 +11635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -11270,7 +11643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -11278,7 +11651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -11286,7 +11659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -11294,7 +11667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -11302,7 +11675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -11310,7 +11683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -11318,7 +11691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
